--- a/data/technology_patents/files/epo_comparision.xlsx
+++ b/data/technology_patents/files/epo_comparision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Coding/dashboard_seminar20/data/technology_patents/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0A0AB0-B7F7-AF4D-A0ED-4DB0CDB3A18B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7777036D-D980-A149-987F-CD86F6683D03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17940" yWindow="520" windowWidth="17920" windowHeight="20220" xr2:uid="{445982A8-AEB3-4C4E-8384-37900B91B13A}"/>
+    <workbookView xWindow="17940" yWindow="500" windowWidth="17920" windowHeight="19220" xr2:uid="{445982A8-AEB3-4C4E-8384-37900B91B13A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="5">
   <si>
-    <t>total</t>
+    <t>Year</t>
   </si>
   <si>
-    <t>env</t>
+    <t>Name</t>
   </si>
   <si>
-    <t>Year</t>
+    <t>Environmetal related</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -395,228 +401,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3404EA9B-26ED-3842-A64C-B609ECF0CE8B}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>1999</v>
-      </c>
-      <c r="B2" s="1">
-        <v>108672</v>
       </c>
       <c r="C2" s="1">
         <v>6712</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>2000</v>
-      </c>
-      <c r="B3" s="1">
-        <v>116774</v>
       </c>
       <c r="C3" s="1">
         <v>7394</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>2001</v>
-      </c>
-      <c r="B4" s="1">
-        <v>115144</v>
       </c>
       <c r="C4" s="1">
         <v>7471</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>2002</v>
-      </c>
-      <c r="B5" s="1">
-        <v>118878</v>
       </c>
       <c r="C5" s="1">
         <v>7512</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
         <v>2003</v>
-      </c>
-      <c r="B6" s="1">
-        <v>124573</v>
       </c>
       <c r="C6" s="1">
         <v>8061</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
         <v>2004</v>
-      </c>
-      <c r="B7" s="1">
-        <v>132455</v>
       </c>
       <c r="C7" s="1">
         <v>8721</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
         <v>2005</v>
-      </c>
-      <c r="B8" s="1">
-        <v>137401</v>
       </c>
       <c r="C8" s="1">
         <v>9622</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
         <v>2006</v>
-      </c>
-      <c r="B9" s="1">
-        <v>136683</v>
       </c>
       <c r="C9" s="1">
         <v>10651</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
         <v>2007</v>
-      </c>
-      <c r="B10" s="1">
-        <v>134832</v>
       </c>
       <c r="C10" s="1">
         <v>11668</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
         <v>2008</v>
-      </c>
-      <c r="B11" s="1">
-        <v>129643</v>
       </c>
       <c r="C11" s="1">
         <v>12299</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
         <v>2009</v>
-      </c>
-      <c r="B12" s="1">
-        <v>132378</v>
       </c>
       <c r="C12" s="1">
         <v>14246</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
         <v>2010</v>
-      </c>
-      <c r="B13" s="1">
-        <v>136449</v>
       </c>
       <c r="C13" s="1">
         <v>15513</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
         <v>2011</v>
-      </c>
-      <c r="B14" s="1">
-        <v>140588</v>
       </c>
       <c r="C14" s="1">
         <v>16035</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
         <v>2012</v>
-      </c>
-      <c r="B15" s="1">
-        <v>143460</v>
       </c>
       <c r="C15" s="1">
         <v>15642</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
         <v>2013</v>
-      </c>
-      <c r="B16" s="1">
-        <v>146616</v>
       </c>
       <c r="C16" s="1">
         <v>14738</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
         <v>2014</v>
-      </c>
-      <c r="B17" s="1">
-        <v>144874</v>
       </c>
       <c r="C17" s="1">
         <v>13878</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
         <v>2015</v>
-      </c>
-      <c r="B18" s="1">
-        <v>145544</v>
       </c>
       <c r="C18" s="1">
         <v>13424</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
         <v>2016</v>
-      </c>
-      <c r="B19" s="1">
-        <v>147995</v>
       </c>
       <c r="C19" s="1">
         <v>12345</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>1999</v>
+      </c>
+      <c r="C20" s="1">
+        <v>108672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>2000</v>
+      </c>
+      <c r="C21" s="1">
+        <v>116774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>2001</v>
+      </c>
+      <c r="C22" s="1">
+        <v>115144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>2002</v>
+      </c>
+      <c r="C23" s="1">
+        <v>118878</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>2003</v>
+      </c>
+      <c r="C24" s="1">
+        <v>124573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>2004</v>
+      </c>
+      <c r="C25" s="1">
+        <v>132455</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>2005</v>
+      </c>
+      <c r="C26" s="1">
+        <v>137401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>2006</v>
+      </c>
+      <c r="C27" s="1">
+        <v>136683</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>2007</v>
+      </c>
+      <c r="C28" s="1">
+        <v>134832</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>2008</v>
+      </c>
+      <c r="C29" s="1">
+        <v>129643</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>2009</v>
+      </c>
+      <c r="C30" s="1">
+        <v>132378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>2010</v>
+      </c>
+      <c r="C31" s="1">
+        <v>136449</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>2011</v>
+      </c>
+      <c r="C32" s="1">
+        <v>140588</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>2012</v>
+      </c>
+      <c r="C33" s="1">
+        <v>143460</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>2013</v>
+      </c>
+      <c r="C34" s="1">
+        <v>146616</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>2014</v>
+      </c>
+      <c r="C35" s="1">
+        <v>144874</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>2015</v>
+      </c>
+      <c r="C36" s="1">
+        <v>145544</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>2016</v>
+      </c>
+      <c r="C37" s="1">
+        <v>147995</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
